--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H2">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I2">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J2">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>83.76902266666666</v>
+        <v>93.78975666666668</v>
       </c>
       <c r="N2">
-        <v>251.307068</v>
+        <v>281.36927</v>
       </c>
       <c r="O2">
-        <v>0.9980041114547904</v>
+        <v>0.997863063099077</v>
       </c>
       <c r="P2">
-        <v>0.9980041114547905</v>
+        <v>0.9978630630990771</v>
       </c>
       <c r="Q2">
-        <v>30.37604376931111</v>
+        <v>23.97835171590445</v>
       </c>
       <c r="R2">
-        <v>273.3843939238</v>
+        <v>215.80516544314</v>
       </c>
       <c r="S2">
-        <v>0.01966145440463752</v>
+        <v>0.01351618894951535</v>
       </c>
       <c r="T2">
-        <v>0.01966145440463753</v>
+        <v>0.01351618894951535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H3">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I3">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J3">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.03186166666666667</v>
+        <v>0.09680433333333333</v>
       </c>
       <c r="N3">
-        <v>0.095585</v>
+        <v>0.290413</v>
       </c>
       <c r="O3">
-        <v>0.0003795922802832038</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="P3">
-        <v>0.0003795922802832039</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="Q3">
-        <v>0.01155357136111111</v>
+        <v>0.02474906039622222</v>
       </c>
       <c r="R3">
-        <v>0.10398214225</v>
+        <v>0.222741543566</v>
       </c>
       <c r="S3">
-        <v>7.478262088781672E-06</v>
+        <v>1.395062432153874E-05</v>
       </c>
       <c r="T3">
-        <v>7.478262088781675E-06</v>
+        <v>1.395062432153874E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H4">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I4">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J4">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07487966666666666</v>
+        <v>0.05343666666666667</v>
       </c>
       <c r="N4">
-        <v>0.224639</v>
+        <v>0.16031</v>
       </c>
       <c r="O4">
-        <v>0.0008920984490300634</v>
+        <v>0.0005685319780849309</v>
       </c>
       <c r="P4">
-        <v>0.0008920984490300636</v>
+        <v>0.000568531978084931</v>
       </c>
       <c r="Q4">
-        <v>0.02715261512777778</v>
+        <v>0.01366165382444445</v>
       </c>
       <c r="R4">
-        <v>0.24437353615</v>
+        <v>0.12295488442</v>
       </c>
       <c r="S4">
-        <v>1.757503078267328E-05</v>
+        <v>7.700841852760982E-06</v>
       </c>
       <c r="T4">
-        <v>1.757503078267329E-05</v>
+        <v>7.700841852760984E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2556606666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.7669820000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.01354513404628681</v>
+      </c>
+      <c r="J5">
+        <v>0.01354513404628681</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.3626166666666666</v>
-      </c>
-      <c r="H5">
-        <v>1.08785</v>
-      </c>
-      <c r="I5">
-        <v>0.01970077495570336</v>
-      </c>
-      <c r="J5">
-        <v>0.01970077495570336</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.06078666666666666</v>
+        <v>0.050611</v>
       </c>
       <c r="N5">
-        <v>0.18236</v>
+        <v>0.151833</v>
       </c>
       <c r="O5">
-        <v>0.0007241978158962707</v>
+        <v>0.0005384686908400556</v>
       </c>
       <c r="P5">
-        <v>0.0007241978158962709</v>
+        <v>0.0005384686908400557</v>
       </c>
       <c r="Q5">
-        <v>0.02204225844444444</v>
+        <v>0.01293924200066667</v>
       </c>
       <c r="R5">
-        <v>0.198380326</v>
+        <v>0.116453178006</v>
       </c>
       <c r="S5">
-        <v>1.426725819438432E-05</v>
+        <v>7.293630597157121E-06</v>
       </c>
       <c r="T5">
-        <v>1.426725819438433E-05</v>
+        <v>7.293630597157123E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I6">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J6">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.76902266666666</v>
+        <v>93.78975666666668</v>
       </c>
       <c r="N6">
-        <v>251.307068</v>
+        <v>281.36927</v>
       </c>
       <c r="O6">
-        <v>0.9980041114547904</v>
+        <v>0.997863063099077</v>
       </c>
       <c r="P6">
-        <v>0.9980041114547905</v>
+        <v>0.9978630630990771</v>
       </c>
       <c r="Q6">
-        <v>1397.018169006589</v>
+        <v>1564.134210463673</v>
       </c>
       <c r="R6">
-        <v>12573.1635210593</v>
+        <v>14077.20789417306</v>
       </c>
       <c r="S6">
-        <v>0.9042457681774725</v>
+        <v>0.8816758458424582</v>
       </c>
       <c r="T6">
-        <v>0.9042457681774727</v>
+        <v>0.8816758458424584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I7">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J7">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.03186166666666667</v>
+        <v>0.09680433333333333</v>
       </c>
       <c r="N7">
-        <v>0.095585</v>
+        <v>0.290413</v>
       </c>
       <c r="O7">
-        <v>0.0003795922802832038</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="P7">
-        <v>0.0003795922802832039</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="Q7">
-        <v>0.5313578434033334</v>
+        <v>1.614408383912666</v>
       </c>
       <c r="R7">
-        <v>4.78222059063</v>
+        <v>14.529675455214</v>
       </c>
       <c r="S7">
-        <v>0.0003439311613441915</v>
+        <v>0.0009100145421660502</v>
       </c>
       <c r="T7">
-        <v>0.0003439311613441917</v>
+        <v>0.0009100145421660506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,40 +918,40 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I8">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J8">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07487966666666666</v>
+        <v>0.05343666666666667</v>
       </c>
       <c r="N8">
-        <v>0.224639</v>
+        <v>0.16031</v>
       </c>
       <c r="O8">
-        <v>0.0008920984490300634</v>
+        <v>0.0005685319780849309</v>
       </c>
       <c r="P8">
-        <v>0.0008920984490300636</v>
+        <v>0.000568531978084931</v>
       </c>
       <c r="Q8">
-        <v>1.248770147871333</v>
+        <v>0.8911646793533332</v>
       </c>
       <c r="R8">
-        <v>11.238931330842</v>
+        <v>8.02048211418</v>
       </c>
       <c r="S8">
-        <v>0.000808289503093559</v>
+        <v>0.0005023343695173409</v>
       </c>
       <c r="T8">
-        <v>0.0008082895030935593</v>
+        <v>0.000502334369517341</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I9">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J9">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06078666666666666</v>
+        <v>0.050611</v>
       </c>
       <c r="N9">
-        <v>0.18236</v>
+        <v>0.151833</v>
       </c>
       <c r="O9">
-        <v>0.0007241978158962707</v>
+        <v>0.0005384686908400556</v>
       </c>
       <c r="P9">
-        <v>0.0007241978158962709</v>
+        <v>0.0005384686908400557</v>
       </c>
       <c r="Q9">
-        <v>1.013740820453333</v>
+        <v>0.8440409628859998</v>
       </c>
       <c r="R9">
-        <v>9.123667384079999</v>
+        <v>7.596368665973999</v>
       </c>
       <c r="S9">
-        <v>0.0006561624374402549</v>
+        <v>0.0004757715321996533</v>
       </c>
       <c r="T9">
-        <v>0.0006561624374402551</v>
+        <v>0.0004757715321996534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H10">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I10">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J10">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>83.76902266666666</v>
+        <v>93.78975666666668</v>
       </c>
       <c r="N10">
-        <v>251.307068</v>
+        <v>281.36927</v>
       </c>
       <c r="O10">
-        <v>0.9980041114547904</v>
+        <v>0.997863063099077</v>
       </c>
       <c r="P10">
-        <v>0.9980041114547905</v>
+        <v>0.9978630630990771</v>
       </c>
       <c r="Q10">
-        <v>114.4762891516018</v>
+        <v>182.1432089309156</v>
       </c>
       <c r="R10">
-        <v>1030.286602364416</v>
+        <v>1639.28888037824</v>
       </c>
       <c r="S10">
-        <v>0.07409688887268034</v>
+        <v>0.1026710283071034</v>
       </c>
       <c r="T10">
-        <v>0.07409688887268037</v>
+        <v>0.1026710283071034</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H11">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I11">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J11">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.03186166666666667</v>
+        <v>0.09680433333333333</v>
       </c>
       <c r="N11">
-        <v>0.095585</v>
+        <v>0.290413</v>
       </c>
       <c r="O11">
-        <v>0.0003795922802832038</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="P11">
-        <v>0.0003795922802832039</v>
+        <v>0.001029936231997873</v>
       </c>
       <c r="Q11">
-        <v>0.04354121905777779</v>
+        <v>0.1879976293617778</v>
       </c>
       <c r="R11">
-        <v>0.3918709715200001</v>
+        <v>1.691978664256</v>
       </c>
       <c r="S11">
-        <v>2.818285685023054E-05</v>
+        <v>0.0001059710655102841</v>
       </c>
       <c r="T11">
-        <v>2.818285685023055E-05</v>
+        <v>0.0001059710655102841</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H12">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I12">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J12">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07487966666666666</v>
+        <v>0.05343666666666667</v>
       </c>
       <c r="N12">
-        <v>0.224639</v>
+        <v>0.16031</v>
       </c>
       <c r="O12">
-        <v>0.0008920984490300634</v>
+        <v>0.0005685319780849309</v>
       </c>
       <c r="P12">
-        <v>0.0008920984490300636</v>
+        <v>0.000568531978084931</v>
       </c>
       <c r="Q12">
-        <v>0.1023283559964445</v>
+        <v>0.1037760016355556</v>
       </c>
       <c r="R12">
-        <v>0.9209552039680001</v>
+        <v>0.93398401472</v>
       </c>
       <c r="S12">
-        <v>6.623391515383101E-05</v>
+        <v>5.849676671482901E-05</v>
       </c>
       <c r="T12">
-        <v>6.623391515383104E-05</v>
+        <v>5.849676671482903E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H13">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I13">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J13">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.06078666666666666</v>
+        <v>0.050611</v>
       </c>
       <c r="N13">
-        <v>0.18236</v>
+        <v>0.151833</v>
       </c>
       <c r="O13">
-        <v>0.0007241978158962707</v>
+        <v>0.0005384686908400556</v>
       </c>
       <c r="P13">
-        <v>0.0007241978158962709</v>
+        <v>0.0005384686908400557</v>
       </c>
       <c r="Q13">
-        <v>0.08306927559111112</v>
+        <v>0.09828845147733332</v>
       </c>
       <c r="R13">
-        <v>0.74762348032</v>
+        <v>0.884596063296</v>
       </c>
       <c r="S13">
-        <v>5.376812026163143E-05</v>
+        <v>5.540352804324517E-05</v>
       </c>
       <c r="T13">
-        <v>5.376812026163146E-05</v>
+        <v>5.540352804324519E-05</v>
       </c>
     </row>
   </sheetData>
